--- a/biology/Médecine/Gaston_Variot/Gaston_Variot.xlsx
+++ b/biology/Médecine/Gaston_Variot/Gaston_Variot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaston Félix Joseph Variot, né le 2 juin 1855 à Demigny et mort le 17 février 1930 à Paris[1], est un médecin français des Hôpitaux de Paris.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaston Félix Joseph Variot, né le 2 juin 1855 à Demigny et mort le 17 février 1930 à Paris, est un médecin français des Hôpitaux de Paris.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Joseph Variot, directeur de l'école communale de Verdun-sur-le-Doubs, et de Claudine Genelot, Gaston Variot étudie à Paris au Lycée Louis-le-Grand, devient médecin pédiatre, précurseur de la puériculture, et fonde en 1892[2] un hôpital-dispensaire à Belleville, qui deviendra deux ans plus tard la Goutte de lait. Il prendra sa retraite en 1920.
-Archéologue et historien, il fut membre de la Société préhistorique française de 1907 à 1930, pour laquelle il pratiqua des fouilles archéologiques au Camp préhistorique de Chassey-le-Camp (il étudia aussi les dolmens régionaux[3]...).
-Il fut directeur et rédacteur de La Clinique infantile[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Joseph Variot, directeur de l'école communale de Verdun-sur-le-Doubs, et de Claudine Genelot, Gaston Variot étudie à Paris au Lycée Louis-le-Grand, devient médecin pédiatre, précurseur de la puériculture, et fonde en 1892 un hôpital-dispensaire à Belleville, qui deviendra deux ans plus tard la Goutte de lait. Il prendra sa retraite en 1920.
+Archéologue et historien, il fut membre de la Société préhistorique française de 1907 à 1930, pour laquelle il pratiqua des fouilles archéologiques au Camp préhistorique de Chassey-le-Camp (il étudia aussi les dolmens régionaux...).
+Il fut directeur et rédacteur de La Clinique infantile.
 Il repose au cimetière de Santenay (Côte-d'Or).
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hygiène infantile, allaitement maternel et artificiel, sevrage
 Instructions aux mères pour allaiter et nourrir leurs enfants
